--- a/data/case1/15/Q1_14.xlsx
+++ b/data/case1/15/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.27548403307216063</v>
+        <v>0.24418859991079245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999246933555</v>
+        <v>-0.0059999999812774263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.039214529023974265</v>
+        <v>-0.0039999999815574228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998641433478</v>
+        <v>-0.0079999999680016032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002999999914215401</v>
+        <v>-0.0029999999809149358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999048270212</v>
+        <v>0.014822428103748564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998098083687</v>
+        <v>-0.0099999999560225206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998087603181</v>
+        <v>-0.0099999999562463415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999034956417</v>
+        <v>-0.0019999999806437074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999904612082</v>
+        <v>-0.029306705808506806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.015239041698398736</v>
+        <v>-0.0029999999791101573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999998865461457</v>
+        <v>0.059237003992740789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998850278047</v>
+        <v>-0.0034999999779463664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998319575383</v>
+        <v>-0.0079999999645803399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999991495902663</v>
+        <v>0.011674708627449348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999904318539</v>
+        <v>-0.0019999999819781955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999907409844</v>
+        <v>-0.0019999999815381031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.012385430506125061</v>
+        <v>-0.0039999999755169213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999481268311</v>
+        <v>-0.0039999999870863334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999440674117</v>
+        <v>-0.0039999999861457525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999434554567</v>
+        <v>-0.003999999985999203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999429571886</v>
+        <v>-0.0039999999858562063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999998974676885</v>
+        <v>-0.077106449201973071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999699042093</v>
+        <v>-0.019999999929861012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.076347992999036052</v>
+        <v>-0.019999999928890233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998966066528</v>
+        <v>-0.00249999997715733</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999998920223199</v>
+        <v>-0.0024999999758756886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.017473409667933204</v>
+        <v>-0.0019999999717175143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999997991940788</v>
+        <v>-0.0069999999526570988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999167581919</v>
+        <v>-0.059999999794574599</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.00699999978532162</v>
+        <v>-0.0069999999490804043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997490165526</v>
+        <v>-0.0099999999399909001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998193707142</v>
+        <v>-0.0039999999575659473</v>
       </c>
     </row>
   </sheetData>
